--- a/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
+++ b/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,6 +5793,282 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45188.98958333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Central Cordoba</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/central-cordoba-santiago-del-estero-boca-juniors/CYd8EYPG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45189.08333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Gimnasia L.P.</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>15/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>15/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>15/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-gimnasia-l-p/IZ3aGfe4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45189.08333333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
+++ b/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.76</v>
+        <v>2.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 01:42</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.75</v>
+        <v>3.38</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>03/09/2023 21:07</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>29/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>03/09/2023 21:13</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>29/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>29/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>03/09/2023 21:13</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>29/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>03/09/2023 21:13</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/argentinos-jrs-atl-tucuman/hf3o3pLm/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-talleres-cordoba/Q71g1Ok0/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,38 +3893,38 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.67</v>
+        <v>1.76</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.38</v>
+        <v>1.75</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 21:07</t>
+          <t>03/09/2023 21:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.13</v>
+        <v>3.56</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,15 +3932,15 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.73</v>
+        <v>5.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>5.63</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-talleres-cordoba/Q71g1Ok0/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/argentinos-jrs-atl-tucuman/hf3o3pLm/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,558 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45189.875</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/barracas-central-banfield/UDN4fDYp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45189.875</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:53</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>15/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/defensa-y-justicia-tigre/0bg4FEAA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45189.97916666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Estudiantes L.P.</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/estudiantes-l-p-san-lorenzo/IZPUVZfi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45189.97916666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Arsenal Sarandi</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>17/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:23</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>17/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:23</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>17/09/2023 23:43</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>6</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/velez-sarsfield-arsenal-sarandi/OEeXCLlC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45190.08333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Colon Santa Fe</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/instituto-colon-santa-fe/A90iIGQi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45190.08333333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Newells Old Boys</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/racing-club-newells-old-boys/4Wym7jIj/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
+++ b/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.12</v>
+        <v>2.85</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.19</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.93</v>
+        <v>2.67</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.44</v>
+        <v>3.12</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.54</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-colon-santa-fe/xr5c0r56/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/ca-belgrano-de-cordoba-newells-old-boys/plSOG3km/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.8</v>
+        <v>3.19</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>2.67</v>
+        <v>2.93</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.12</v>
+        <v>4.44</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.25</v>
+        <v>4.54</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/ca-belgrano-de-cordoba-newells-old-boys/plSOG3km/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-colon-santa-fe/xr5c0r56/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,38 +3801,38 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.67</v>
+        <v>1.76</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.38</v>
+        <v>1.75</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 21:07</t>
+          <t>03/09/2023 21:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.13</v>
+        <v>3.56</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,15 +3840,15 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.73</v>
+        <v>5.34</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>29/08/2023 01:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.36</v>
+        <v>5.63</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-talleres-cordoba/Q71g1Ok0/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/argentinos-jrs-atl-tucuman/hf3o3pLm/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.76</v>
+        <v>2.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>29/08/2023 01:42</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.75</v>
+        <v>3.38</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>03/09/2023 21:07</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>29/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>03/09/2023 21:13</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>29/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>29/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>03/09/2023 21:13</t>
         </is>
       </c>
-      <c r="R38" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>29/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>03/09/2023 21:13</t>
-        </is>
-      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/argentinos-jrs-atl-tucuman/hf3o3pLm/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-talleres-cordoba/Q71g1Ok0/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,374 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/racing-club-newells-old-boys/4Wym7jIj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45190.91666666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/ca-belgrano-de-cordoba-platense/pneGCCfT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45190.97916666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>17/09/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:26</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/union-de-santa-fe-godoy-cruz/Quwq8W2p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45191.01041666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:14</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:14</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:14</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/argentinos-jrs-talleres-cordoba/WI1mJdBo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45191.08333333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>16/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/river-plate-atl-tucuman/IyeyCu4I/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
+++ b/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.74</v>
+        <v>2.19</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:42</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/talleres-cordoba-huracan/l4ycuMBq/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/newells-old-boys-lanus/OdYgrAqL/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:43</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.94</v>
+        <v>3.44</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:43</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.79</v>
+        <v>5.57</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:42</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/newells-old-boys-lanus/OdYgrAqL/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/talleres-cordoba-huracan/l4ycuMBq/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.61</v>
+        <v>1.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:27</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:22</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.86</v>
+        <v>4.39</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.32</v>
+        <v>4.87</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:27</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/platense-defensa-y-justicia/8U9Qxl7r/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/godoy-cruz-central-cordoba-santiago-del-estero/6LNbsUbR/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.87</v>
+        <v>2.61</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:27</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:22</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.39</v>
+        <v>2.86</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.87</v>
+        <v>4.32</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:27</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/godoy-cruz-central-cordoba-santiago-del-estero/6LNbsUbR/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/platense-defensa-y-justicia/8U9Qxl7r/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.8</v>
+        <v>3.19</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.67</v>
+        <v>2.93</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.12</v>
+        <v>4.44</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>4.54</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 23:51</t>
+          <t>02/09/2023 23:56</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/ca-belgrano-de-cordoba-newells-old-boys/plSOG3km/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-colon-santa-fe/xr5c0r56/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.12</v>
+        <v>2.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.19</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>2.93</v>
+        <v>2.67</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.44</v>
+        <v>3.12</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.54</v>
+        <v>3.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 23:56</t>
+          <t>02/09/2023 23:51</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-colon-santa-fe/xr5c0r56/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/ca-belgrano-de-cordoba-newells-old-boys/plSOG3km/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.9</v>
+        <v>2.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.82</v>
+        <v>4.04</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.38</v>
+        <v>2.93</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-gimnasia-l-p/IZ3aGfe4/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.78</v>
+        <v>1.9</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.04</v>
+        <v>4.82</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.93</v>
+        <v>5.38</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-gimnasia-l-p/IZ3aGfe4/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,742 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/river-plate-atl-tucuman/IyeyCu4I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Gimnasia L.P.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>20/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/gimnasia-l-p-rosario-central/E1JwUDP3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45192.97916666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/09/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/boca-juniors-lanus/vNeOuBOF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45193.08333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Central Cordoba</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:35</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:52</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/central-cordoba-santiago-del-estero-defensa-y-justicia/MooTvVwM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45193.08333333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-velez-sarsfield/WxUYUgAc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45193.83333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/independiente-instituto/hhIsTXvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45193.94791666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Newells Old Boys</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Estudiantes L.P.</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:43</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:43</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>21/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:44</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/newells-old-boys-estudiantes-l-p/W6eUJT1d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:53</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>20/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/tigre-san-lorenzo/hGdQK9nj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45194.08333333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/banfield-river-plate/MX5fQVOS/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
+++ b/2023/argentina_copa-de-la-liga-profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:43</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.94</v>
+        <v>3.44</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:43</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.79</v>
+        <v>5.57</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 23:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.48</v>
+        <v>4.73</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 23:42</t>
+          <t>26/08/2023 23:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/newells-old-boys-lanus/OdYgrAqL/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/talleres-cordoba-huracan/l4ycuMBq/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.74</v>
+        <v>2.19</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:43</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:43</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.57</v>
+        <v>3.79</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>21/08/2023 23:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 23:50</t>
+          <t>26/08/2023 23:42</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/talleres-cordoba-huracan/l4ycuMBq/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/newells-old-boys-lanus/OdYgrAqL/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.87</v>
+        <v>2.61</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:27</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:22</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.39</v>
+        <v>2.86</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>22/08/2023 01:42</t>
+          <t>21/08/2023 08:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.87</v>
+        <v>4.32</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:26</t>
+          <t>27/08/2023 19:27</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/godoy-cruz-central-cordoba-santiago-del-estero/6LNbsUbR/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/platense-defensa-y-justicia/8U9Qxl7r/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.61</v>
+        <v>1.87</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:27</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:22</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.86</v>
+        <v>4.39</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 08:12</t>
+          <t>22/08/2023 01:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.32</v>
+        <v>4.87</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 19:27</t>
+          <t>27/08/2023 19:26</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/platense-defensa-y-justicia/8U9Qxl7r/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/godoy-cruz-central-cordoba-santiago-del-estero/6LNbsUbR/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.78</v>
+        <v>1.9</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.04</v>
+        <v>4.82</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>16/09/2023 01:13</t>
+          <t>15/09/2023 01:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.93</v>
+        <v>5.38</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-gimnasia-l-p/IZ3aGfe4/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.9</v>
+        <v>2.78</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.82</v>
+        <v>4.04</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>15/09/2023 01:13</t>
+          <t>16/09/2023 01:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.38</v>
+        <v>2.93</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/huracan-gimnasia-l-p/IZ3aGfe4/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/rosario-central-independiente/vq5eHztb/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.72</v>
+        <v>2.49</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>16/09/2023 23:12</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.41</v>
+        <v>2.67</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>20/09/2023 20:59</t>
+          <t>20/09/2023 20:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>16/09/2023 23:12</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.8</v>
+        <v>3.03</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>20/09/2023 20:52</t>
+          <t>20/09/2023 20:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>16/09/2023 23:12</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.61</v>
+        <v>3.04</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>20/09/2023 20:59</t>
+          <t>20/09/2023 20:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/barracas-central-banfield/UDN4fDYp/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/defensa-y-justicia-tigre/0bg4FEAA/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.49</v>
+        <v>2.72</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>16/09/2023 23:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.67</v>
+        <v>3.41</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>20/09/2023 20:58</t>
+          <t>20/09/2023 20:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>16/09/2023 23:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/09/2023 20:53</t>
+          <t>20/09/2023 20:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>16/09/2023 23:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.04</v>
+        <v>2.61</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20/09/2023 20:53</t>
+          <t>20/09/2023 20:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/defensa-y-justicia-tigre/0bg4FEAA/</t>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/barracas-central-banfield/UDN4fDYp/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,558 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/banfield-river-plate/MX5fQVOS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>21/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/platense-union-de-santa-fe/nFwHsXg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/sarmiento-junin-ca-belgrano-de-cordoba/txwLti99/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45194.97916666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Colon Santa Fe</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:25</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:20</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/colon-santa-fe-argentinos-jrs/0IHoSifG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45194.97916666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>24/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>24/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/godoy-cruz-racing-club/8OvDrDvc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45195.08333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/talleres-cordoba-barracas-central/v9GkRB9M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>copa-de-la-liga-profesional</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45195.08333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Arsenal Sarandi</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/copa-de-la-liga-profesional/atl-tucuman-arsenal-sarandi/bgcMLkXq/</t>
         </is>
       </c>
     </row>
